--- a/Oracle/삼성전자 시가총액, 나머지 동일가중, 전체 시총제한 1천억/4factor_13factor_wicsmid_result_20170831_25종목.xlsx
+++ b/Oracle/삼성전자 시가총액, 나머지 동일가중, 전체 시총제한 1천억/4factor_13factor_wicsmid_result_20170831_25종목.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\python\Oracle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SH-NoteBook\Google 드라이브\python\Oracle\삼성전자 시가총액, 나머지 동일가중, 전체 시총제한 1천억\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12048,7 +12048,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U102" sqref="U102"/>
     </sheetView>
   </sheetViews>
